--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SynopticProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC79FF6D-4736-4F21-8222-FCC13705985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C9235-6335-4B72-BB3A-3D7EFEE5F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Test Number</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Reply "No" to every question except for Continent. Reply to Continent with "Asia"</t>
-  </si>
-  <si>
-    <t>Evidence</t>
   </si>
   <si>
     <t>Reply "No" to every question except for Continent. Reply to Continent with "Africa"</t>
@@ -147,7 +144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -156,9 +153,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -186,14 +180,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:F41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="4">
-  <autoFilter ref="A1:F41" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="4">
+  <autoFilter ref="A1:E41" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1081231A-163F-444D-9765-529BCE39175C}" name="Test Number" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{330A4732-53C8-483A-B057-26CCC69A21D3}" name="Test Description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3BBC815E-3DAE-4A29-B9D9-AA8FF885D746}" name="Expected Outcome" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3BBC815E-3DAE-4A29-B9D9-AA8FF885D746}" name="Expected Outcome" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{C77784F6-1456-4BE2-AE14-066C7D267827}" name="Actual Outcome" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D104F11F-37D7-45AD-953C-8637FFFA17E6}" name="Evidence" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{AFF8074A-4584-47BD-B9FC-6848B42FB467}" name="Pass / Fail" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -497,18 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B9818-1FC2-4BE2-8969-C872E32BC830}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:HP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="HP1" sqref="HP1:HP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="224" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,13 +516,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -541,12 +532,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -559,12 +549,11 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -572,89 +561,84 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -662,9 +646,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -672,9 +655,8 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -682,9 +664,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -692,9 +673,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -702,9 +682,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -712,9 +691,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -722,9 +700,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -732,9 +709,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -742,9 +718,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -752,9 +727,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -762,9 +736,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -772,9 +745,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -782,9 +754,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -792,9 +763,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -802,9 +772,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -812,9 +781,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -822,9 +790,8 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -832,9 +799,8 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -842,9 +808,8 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -852,9 +817,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -862,9 +826,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -872,9 +835,8 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -882,9 +844,8 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -892,9 +853,8 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -902,9 +862,8 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -912,9 +871,8 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -922,9 +880,8 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -932,9 +889,8 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -942,9 +898,8 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -952,9 +907,8 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -962,9 +916,8 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -972,15 +925,13 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SynopticProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C9235-6335-4B72-BB3A-3D7EFEE5F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA14D7-1242-465E-83BB-F1A8B1885676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Test Number</t>
   </si>
@@ -51,49 +51,43 @@
     <t>Pass / Fail</t>
   </si>
   <si>
-    <t>I am given a list of all holidays that are in the "Active" Category</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Reply to every question except category with "No". Reply to Active or Lazy with "Active"</t>
-  </si>
-  <si>
-    <t>Reply to every question except category with "No". Reply to Active or Lazy with "Lazy"</t>
-  </si>
-  <si>
-    <t>I am given a list of all holidays that are in the "Lazy" Category</t>
-  </si>
-  <si>
-    <t>Reply "No" to every question except for Continent. Reply to Continent with "Asia"</t>
-  </si>
-  <si>
-    <t>Reply "No" to every question except for Continent. Reply to Continent with "Africa"</t>
-  </si>
-  <si>
-    <t>Reply "No" to every question except for Continent. Reply to Continent with "North America"</t>
-  </si>
-  <si>
-    <t>I am given a list of active holidays in African countries</t>
-  </si>
-  <si>
-    <t>I am given a list of active holidays in Asian countries</t>
-  </si>
-  <si>
-    <t>I am given a list of active holidays in North American countries</t>
-  </si>
-  <si>
-    <t>I am given a list of active holidays for £50 / Night or under.</t>
-  </si>
-  <si>
-    <t>Reply "No" to every question except for Continent, and Price Limit. Reply to Continent with "Europe", reply to Price Limit with "50"</t>
-  </si>
-  <si>
-    <t>Reply "No" to every question except for Price Limit. Reply to Price limit with "50"</t>
-  </si>
-  <si>
-    <t>I am give a list of active holidays in Europe for £50 / Night or under.</t>
+    <t>I fill every question with "no" or "either"</t>
+  </si>
+  <si>
+    <t>I am given a list of all holidays.</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" except Category, which I say "Active" to</t>
+  </si>
+  <si>
+    <t>I am given a list of all "Active" holidays</t>
+  </si>
+  <si>
+    <t>I am given a list of all holidays in Asian countries.</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" or "either", except for Upper Price Limit, which I say "50" to.</t>
+  </si>
+  <si>
+    <t>I am given a list of holidays at or under £50 / Night</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" or "either", except for Location, which I say "city" to.</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" or "either", except for Continent, which I say "Asia" to.</t>
+  </si>
+  <si>
+    <t>I am given a list of holidays in the City.</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" or "either", except for TempRating which I say "mild" to.</t>
+  </si>
+  <si>
+    <t>I am given a list of holidays in Mild temperature areas.</t>
   </si>
 </sst>
 </file>
@@ -149,12 +143,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -164,7 +152,13 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,14 +174,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E41" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1081231A-163F-444D-9765-529BCE39175C}" name="Test Number" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1081231A-163F-444D-9765-529BCE39175C}" name="Test Number" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{330A4732-53C8-483A-B057-26CCC69A21D3}" name="Test Description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3BBC815E-3DAE-4A29-B9D9-AA8FF885D746}" name="Expected Outcome" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C77784F6-1456-4BE2-AE14-066C7D267827}" name="Actual Outcome" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{AFF8074A-4584-47BD-B9FC-6848B42FB467}" name="Pass / Fail" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3BBC815E-3DAE-4A29-B9D9-AA8FF885D746}" name="Expected Outcome" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C77784F6-1456-4BE2-AE14-066C7D267827}" name="Actual Outcome" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AFF8074A-4584-47BD-B9FC-6848B42FB467}" name="Pass / Fail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B9818-1FC2-4BE2-8969-C872E32BC830}">
-  <dimension ref="A1:HP41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="HP1" sqref="HP1:HP1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,16 +518,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,16 +552,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -578,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -601,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,34 +603,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">

--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SynopticProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA14D7-1242-465E-83BB-F1A8B1885676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C32D01-0A15-4475-BBBB-16134C48E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Tests" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Test Number</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>I am given a list of holidays in Mild temperature areas.</t>
+  </si>
+  <si>
+    <t>I fill every question with "no" or "either", except for StarRating which I say "3" to.</t>
+  </si>
+  <si>
+    <t>I am given a lsit of holidays that are 3 starts or higher.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -619,10 +625,18 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">

--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SynopticProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C32D01-0A15-4475-BBBB-16134C48E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0256B-9ECE-4991-B3DD-D9702D9A72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Test Number</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>I am given a lsit of holidays that are 3 starts or higher.</t>
+  </si>
+  <si>
+    <t>Attempting to send an empty message</t>
+  </si>
+  <si>
+    <t>The message doesn't send, I am given feedback.</t>
+  </si>
+  <si>
+    <t>The message doesn't send and I am given feedback saying "Invalid Input"</t>
+  </si>
+  <si>
+    <t>Replying to a question with an invalid response such "hello"</t>
+  </si>
+  <si>
+    <t>The message is sent, I receive feedback and the question is asked again.</t>
+  </si>
+  <si>
+    <t>Replying normally to a question after repling with an invalid response will still work</t>
+  </si>
+  <si>
+    <t>The message is sent, I receive feedback, then I can answer normally and the preference is set</t>
+  </si>
+  <si>
+    <t>The bot asks 2+ Questions</t>
+  </si>
+  <si>
+    <t>After I have answers 1 question there is minimum one more.</t>
+  </si>
+  <si>
+    <t>Having a conversation with the bot and answering all of it's questiont o receive holiday recommendations</t>
+  </si>
+  <si>
+    <t>After I have answered all of the questions I am given holiday recommendations</t>
   </si>
 </sst>
 </file>
@@ -180,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E41" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E13" xr:uid="{126AC3FC-18B0-4F5D-873C-133982E80992}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1081231A-163F-444D-9765-529BCE39175C}" name="Test Number" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{330A4732-53C8-483A-B057-26CCC69A21D3}" name="Test Description" dataDxfId="3"/>
@@ -189,7 +222,7 @@
     <tableColumn id="7" xr3:uid="{C77784F6-1456-4BE2-AE14-066C7D267827}" name="Actual Outcome" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{AFF8074A-4584-47BD-B9FC-6848B42FB467}" name="Pass / Fail" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -493,7 +526,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="HQ6" sqref="HQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,285 +675,271 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>

--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SynopticProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0256B-9ECE-4991-B3DD-D9702D9A72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EBC364-78EB-4746-BD58-13A6D991D1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10071397-81EC-4882-A7EA-BCD71D56A078}"/>
   </bookViews>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B9818-1FC2-4BE2-8969-C872E32BC830}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="HQ6" sqref="HQ6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,13 +945,6 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
